--- a/risk-slim/examples/results/result_compare.xlsx
+++ b/risk-slim/examples/results/result_compare.xlsx
@@ -10,6 +10,7 @@
     <sheet name="filter_lr_simulate" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="filter_cpa_breastcancer" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="filter_cpa_breastcancer1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="filter_lr_breastcancer" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1175,4 +1176,178 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Features</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Coefs</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Intercept</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-9.858229678915311</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Clump Thickness</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Uniformity of Cell Shape</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Marginal Adhesion</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bare Nuclei</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bland Chromatin</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Mitoses</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9562043795620438</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Sensitivity</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9873417721518988</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Specificity</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9137931034482759</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>AUC</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0.9978175469227412</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>